--- a/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Historias Usuario(con criterios de aceptación y estimación).xlsx
+++ b/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Historias Usuario(con criterios de aceptación y estimación).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -579,48 +579,141 @@
     <t>Se deben realizar pruebas en varios dispositivos y tamaños de pantalla para verificar que el diseño responsivo funcione correctamente en todos los casos.</t>
   </si>
   <si>
+    <t>Talla de camisetas</t>
+  </si>
+  <si>
+    <t>Sebastián Berríos</t>
+  </si>
+  <si>
+    <t>Danilo Gutiérrez</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Total Puntos historias</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>Talla</t>
+  </si>
+  <si>
+    <t>Punto por talla</t>
+  </si>
+  <si>
+    <t>Puntos totales</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>74 PH</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>75 PH</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>30 PH</t>
+  </si>
+  <si>
+    <t>H20</t>
+  </si>
+  <si>
+    <t>H21</t>
+  </si>
+  <si>
+    <t>H22</t>
+  </si>
+  <si>
+    <t>H23</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>H25</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
     <t>Valor</t>
   </si>
   <si>
-    <t>Sebastián Berríos</t>
-  </si>
-  <si>
-    <t>Danilo Gutiérrez</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Valor 2</t>
-  </si>
-  <si>
-    <t>prioridad</t>
-  </si>
-  <si>
-    <t>Estimación(hrs.)</t>
-  </si>
-  <si>
-    <t>Fibonacci</t>
-  </si>
-  <si>
-    <t>Regla</t>
-  </si>
-  <si>
-    <t>SPRINT1</t>
-  </si>
-  <si>
-    <t>H01</t>
-  </si>
-  <si>
-    <t>Se define un puntaje, en relación a cada historia de usuario, basado en riesgo, esfuerzo y nivel de complejidad.</t>
-  </si>
-  <si>
-    <t>SPRINT2</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
     <t>Esfuerzo</t>
   </si>
   <si>
@@ -652,61 +745,13 @@
   </si>
   <si>
     <t>H9</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>H13</t>
-  </si>
-  <si>
-    <t>H14</t>
-  </si>
-  <si>
-    <t>H15</t>
-  </si>
-  <si>
-    <t>H16</t>
-  </si>
-  <si>
-    <t>H17</t>
-  </si>
-  <si>
-    <t>H18</t>
-  </si>
-  <si>
-    <t>H19</t>
-  </si>
-  <si>
-    <t>H20</t>
-  </si>
-  <si>
-    <t>H21</t>
-  </si>
-  <si>
-    <t>H22</t>
-  </si>
-  <si>
-    <t>H23</t>
-  </si>
-  <si>
-    <t>H24</t>
-  </si>
-  <si>
-    <t>H25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -770,20 +815,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="G_d0_f1"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -792,7 +831,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,32 +874,8 @@
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
-        <bgColor rgb="FFF1C232"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9EBED"/>
-        <bgColor rgb="FFE9EBED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5A6BD"/>
-        <bgColor rgb="FFD5A6BD"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="32">
+  <borders count="29">
     <border/>
     <border>
       <left style="thin">
@@ -1112,36 +1127,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1150,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1289,50 +1277,31 @@
     <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="28" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2772,13 +2741,12 @@
     <col customWidth="1" min="7" max="7" width="16.57"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="56" t="s">
         <v>185</v>
       </c>
       <c r="C1" s="57"/>
-      <c r="D1" s="4"/>
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="58"/>
@@ -2788,191 +2756,370 @@
       <c r="C2" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="60" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="C3" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61" t="s">
+      <c r="C4" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="63" t="s">
+      <c r="C5" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="64" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B6" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="65">
+        <f>H7*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="65">
+        <v>3.0</v>
+      </c>
+      <c r="I8" s="65">
+        <f>H8*5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="65">
+        <v>5.0</v>
+      </c>
+      <c r="I9" s="65">
+        <f>H9*4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="65">
         <v>8.0</v>
       </c>
-      <c r="C3" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="D3" s="66">
-        <f t="shared" ref="D3:D9" si="1">AVERAGE(B3+C3)/3</f>
-        <v>4.333333333</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67">
-        <v>1.0</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="72"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67">
-        <v>2.0</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67">
-        <v>3.0</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="72"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67">
-        <v>5.0</v>
-      </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67">
-        <v>8.0</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73">
+      <c r="I10" s="65">
+        <f>H10*8</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="65">
         <v>13.0</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
+      <c r="I11" s="65">
+        <f>H11*6</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="66">
+        <f>SUM(I6:I11)</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -3930,12 +4077,10 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K9"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.0"/>
@@ -3968,316 +4113,316 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4">
-      <c r="B4" s="76" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>200</v>
+      <c r="B4" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="79">
+      <c r="B5" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="61">
         <v>7.0</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79">
+      <c r="D5" s="70"/>
+      <c r="E5" s="61">
         <v>3.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="79">
+      <c r="B6" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="61">
         <v>8.0</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79">
+      <c r="D6" s="70"/>
+      <c r="E6" s="61">
         <v>6.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="79">
+      <c r="B7" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="61">
         <v>5.0</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79">
+      <c r="D7" s="70"/>
+      <c r="E7" s="61">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="79">
+      <c r="B8" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="61">
         <v>8.0</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79">
+      <c r="D8" s="70"/>
+      <c r="E8" s="61">
         <v>9.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="79">
+      <c r="B9" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="61">
         <v>7.0</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79">
+      <c r="D9" s="70"/>
+      <c r="E9" s="61">
         <v>5.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="61">
+        <v>8.0</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="61">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="61">
+        <v>7.0</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="61">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="61">
+        <v>7.0</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="61">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="61">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C14" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="61">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="61">
         <v>8.0</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79">
+      <c r="D15" s="70"/>
+      <c r="E15" s="61">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="61">
+        <v>8.0</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="61">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="61">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="61">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="61">
+        <v>10.0</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="61">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="61">
         <v>4.0</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="79">
+      <c r="D20" s="70"/>
+      <c r="E20" s="61">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="61">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="61">
         <v>7.0</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79">
+      <c r="D22" s="70"/>
+      <c r="E22" s="61">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="61">
+        <v>7.0</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="61">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="61">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="61">
+        <v>6.0</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="61">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="61">
         <v>4.0</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="79">
-        <v>7.0</v>
-      </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79">
+      <c r="D26" s="70"/>
+      <c r="E26" s="61">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="61">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="79">
-        <v>9.0</v>
-      </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="78" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="79">
-        <v>9.0</v>
-      </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="79">
-        <v>8.0</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="79">
-        <v>8.0</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="79">
-        <v>9.0</v>
-      </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79">
+      <c r="D27" s="70"/>
+      <c r="E27" s="61">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="61">
         <v>5.0</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="79">
-        <v>9.0</v>
-      </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="79">
-        <v>10.0</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="79">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="79">
+      <c r="D28" s="70"/>
+      <c r="E28" s="61">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="61">
         <v>5.0</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="79">
-        <v>7.0</v>
-      </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="79">
-        <v>7.0</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="79">
-        <v>6.0</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" s="79">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="78" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="78" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="79">
-        <v>5.0</v>
-      </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79">
+      <c r="D29" s="70"/>
+      <c r="E29" s="61">
         <v>2.0</v>
       </c>
     </row>
@@ -6554,6 +6699,10 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
@@ -6561,10 +6710,6 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Historias Usuario(con criterios de aceptación y estimación).xlsx
+++ b/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Historias Usuario(con criterios de aceptación y estimación).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -459,10 +459,25 @@
     <t>El sistema debe garantizar que solo los administradores puedan realizar cambios en los permisos de los usuarios.</t>
   </si>
   <si>
+    <t>E06-H20</t>
+  </si>
+  <si>
+    <t>quiero crear usuarios médicos,</t>
+  </si>
+  <si>
+    <t>para poder entregar las credenciales de acceso a los médicos.</t>
+  </si>
+  <si>
+    <t>Se deben ingresar los datos del médico para la creción del usuario</t>
+  </si>
+  <si>
+    <t>El administrador debe estar logeado con un usuario admin.</t>
+  </si>
+  <si>
     <t>Agregar información de contacto</t>
   </si>
   <si>
-    <t>E07-H20</t>
+    <t>E07-H21</t>
   </si>
   <si>
     <t xml:space="preserve">quiero poder encontrar fácilmente la información de contacto de la página </t>
@@ -483,7 +498,7 @@
     <t>Visualización de Mapa de Ubicacion</t>
   </si>
   <si>
-    <t>E07-H21</t>
+    <t>E07-H22</t>
   </si>
   <si>
     <t>quiero poder ver un mapa de ubicación en la página de contacto</t>
@@ -504,7 +519,7 @@
     <t>Formulario de Contacto</t>
   </si>
   <si>
-    <t>E07-H22</t>
+    <t>E07-H23</t>
   </si>
   <si>
     <t xml:space="preserve">quiero poder enviar un mensaje a la empresa a través de un formulario de contacto en la página </t>
@@ -525,7 +540,7 @@
     <t>Sección de Libros</t>
   </si>
   <si>
-    <t>E08-H23</t>
+    <t>E08-H24</t>
   </si>
   <si>
     <t>quiero moverme rápidamente hacia las distintas secciones de la pagina</t>
@@ -540,7 +555,7 @@
     <t>Encabezado de la página web</t>
   </si>
   <si>
-    <t>E08-H24</t>
+    <t>E08-H25</t>
   </si>
   <si>
     <t>quiero que la página cuente con un logo, el nombre de la ONG y una sección de inicio de sesión</t>
@@ -561,7 +576,7 @@
     <t>Visualización a cualquier equipo</t>
   </si>
   <si>
-    <t>E09-H25</t>
+    <t>E09-H26</t>
   </si>
   <si>
     <t>quiero que el sistema se adapte correctamente a cualquier dispositivo electrónico en el que lo esté visualizando</t>
@@ -669,27 +684,18 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>74 PH</t>
-  </si>
-  <si>
     <t>H18</t>
   </si>
   <si>
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>75 PH</t>
-  </si>
-  <si>
     <t>H19</t>
   </si>
   <si>
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>30 PH</t>
-  </si>
-  <si>
     <t>H20</t>
   </si>
   <si>
@@ -706,6 +712,9 @@
   </si>
   <si>
     <t>H25</t>
+  </si>
+  <si>
+    <t>H26</t>
   </si>
   <si>
     <t>Historia</t>
@@ -2654,7 +2663,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2677,19 +2686,19 @@
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -2698,7 +2707,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="27"/>
       <c r="E7" s="31" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
@@ -2707,7 +2716,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="29"/>
       <c r="E8" s="53" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2744,91 +2753,91 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="55"/>
       <c r="B1" s="56" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C1" s="57"/>
     </row>
     <row r="2" ht="15.0" customHeight="1">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G3" s="62"/>
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G4" s="62"/>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="57"/>
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="60" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H7" s="65">
         <v>1.0</v>
@@ -2840,16 +2849,16 @@
     </row>
     <row r="8">
       <c r="A8" s="60" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H8" s="65">
         <v>3.0</v>
@@ -2861,16 +2870,16 @@
     </row>
     <row r="9">
       <c r="A9" s="60" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H9" s="65">
         <v>5.0</v>
@@ -2882,16 +2891,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="60" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H10" s="65">
         <v>8.0</v>
@@ -2903,224 +2912,234 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="60" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H11" s="65">
         <v>13.0</v>
       </c>
       <c r="I11" s="65">
-        <f>H11*6</f>
-        <v>78</v>
+        <f>H11*7</f>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="60" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I12" s="66">
         <f>SUM(I6:I11)</f>
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="60" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="60" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="60" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="60" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="60" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="60" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G19" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="H19" s="67">
+        <v>58.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="60" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="67" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="H20" s="67">
+        <v>75.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="60" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G21" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="H21" s="67" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="H21" s="67">
+        <v>59.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>207</v>
+      </c>
+    </row>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
@@ -4114,21 +4133,21 @@
     </row>
     <row r="4">
       <c r="B4" s="68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="70" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C5" s="61">
         <v>7.0</v>
@@ -4140,7 +4159,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="70" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C6" s="61">
         <v>8.0</v>
@@ -4152,7 +4171,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="70" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C7" s="61">
         <v>5.0</v>
@@ -4164,7 +4183,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="70" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C8" s="61">
         <v>8.0</v>
@@ -4176,7 +4195,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="70" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C9" s="61">
         <v>7.0</v>
@@ -4188,7 +4207,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="70" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C10" s="61">
         <v>8.0</v>
@@ -4200,7 +4219,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="70" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C11" s="61">
         <v>7.0</v>
@@ -4212,7 +4231,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="70" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C12" s="61">
         <v>7.0</v>
@@ -4224,7 +4243,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="70" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C13" s="61">
         <v>9.0</v>
@@ -4236,7 +4255,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="70" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C14" s="61">
         <v>9.0</v>
@@ -4248,7 +4267,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="70" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C15" s="61">
         <v>8.0</v>
@@ -4260,7 +4279,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="70" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C16" s="61">
         <v>8.0</v>
@@ -4272,7 +4291,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="70" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C17" s="61">
         <v>9.0</v>
@@ -4284,7 +4303,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="70" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C18" s="61">
         <v>9.0</v>
@@ -4296,7 +4315,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="70" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C19" s="61">
         <v>10.0</v>
@@ -4308,7 +4327,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="70" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C20" s="61">
         <v>4.0</v>
@@ -4320,7 +4339,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="70" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C21" s="61">
         <v>5.0</v>
@@ -4332,7 +4351,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C22" s="61">
         <v>7.0</v>
@@ -4344,7 +4363,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="70" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C23" s="61">
         <v>7.0</v>
@@ -4356,7 +4375,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C24" s="61">
         <v>5.0</v>
@@ -4368,10 +4387,10 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C25" s="61">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D25" s="70"/>
       <c r="E25" s="61">
@@ -4380,31 +4399,31 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C26" s="61">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D26" s="70"/>
       <c r="E26" s="61">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C27" s="61">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="61">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C28" s="61">
         <v>5.0</v>
@@ -4416,17 +4435,28 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C29" s="61">
         <v>5.0</v>
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="61">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="61">
         <v>2.0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -7978,13 +8008,74 @@
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
     </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
+  <mergeCells count="18">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A6:A9"/>
@@ -7992,6 +8083,17 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8015,7 +8117,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -8038,19 +8140,19 @@
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -8059,7 +8161,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="27"/>
       <c r="E8" s="31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -8068,7 +8170,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="29"/>
       <c r="E9" s="53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
@@ -8076,7 +8178,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -8099,19 +8201,19 @@
     </row>
     <row r="14">
       <c r="A14" s="50" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
@@ -8120,7 +8222,7 @@
       <c r="C15" s="17"/>
       <c r="D15" s="27"/>
       <c r="E15" s="31" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -8129,7 +8231,7 @@
       <c r="C16" s="21"/>
       <c r="D16" s="29"/>
       <c r="E16" s="53" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -8137,7 +8239,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -8160,19 +8262,19 @@
     </row>
     <row r="21">
       <c r="A21" s="50" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
@@ -8181,7 +8283,7 @@
       <c r="C22" s="17"/>
       <c r="D22" s="27"/>
       <c r="E22" s="26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -8190,7 +8292,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="29"/>
       <c r="E23" s="23" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -8236,7 +8338,7 @@
     <row r="4">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -8259,19 +8361,19 @@
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
@@ -8286,7 +8388,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -8309,19 +8411,19 @@
     </row>
     <row r="18">
       <c r="A18" s="50" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -8330,7 +8432,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="27"/>
       <c r="E19" s="31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -8339,7 +8441,7 @@
       <c r="C20" s="21"/>
       <c r="D20" s="29"/>
       <c r="E20" s="31" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
